--- a/gears_db/data/outputs/nigeria_emissions_2021_long.xlsx
+++ b/gears_db/data/outputs/nigeria_emissions_2021_long.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -287,25 +287,31 @@
     <t xml:space="preserve">0145_Raising of swine/pigs_1051_Swine, breeding</t>
   </si>
   <si>
-    <t xml:space="preserve">3.A.2</t>
+    <t xml:space="preserve">3.A.2.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - Emissions (N2O) (Manure applied)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0146_Raising of poultry_1052_Chickens, layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0146_Raising of poultry_1053_Chickens, broilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.A.2.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - Manure management (Emissions N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.A.2.c</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Manure management (Emissions CH4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriculture - Manure management (Emissions N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture - Emissions (N2O) (Manure applied)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0146_Raising of poultry_1052_Chickens, layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0146_Raising of poultry_1053_Chickens, broilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.B.1</t>
+    <t xml:space="preserve">3.B.1.a</t>
   </si>
   <si>
     <t xml:space="preserve">LULUCF - Forestland</t>
@@ -314,6 +320,9 @@
     <t xml:space="preserve">9999_Undetermined_9998_Undetermined from LULUCF</t>
   </si>
   <si>
+    <t xml:space="preserve">3.B.1.b</t>
+  </si>
+  <si>
     <t xml:space="preserve">LULUCF - Net Forest conversion</t>
   </si>
   <si>
@@ -323,34 +332,43 @@
     <t xml:space="preserve">LULUCF - Drained organic soils (CO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">3.B.6</t>
+    <t xml:space="preserve">3.B.6.a</t>
   </si>
   <si>
     <t xml:space="preserve">LULUCF - Fires in organic soils</t>
   </si>
   <si>
+    <t xml:space="preserve">3.B.6.b</t>
+  </si>
+  <si>
     <t xml:space="preserve">LULUCF - Forest fires</t>
   </si>
   <si>
-    <t xml:space="preserve">3.C.1</t>
+    <t xml:space="preserve">3.C.1.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - Burning crop residues (Emissions CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111_Growing of cereals (except rice), leguminous crops and oil seeds_0015_Wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111_Growing of cereals (except rice), leguminous crops and oil seeds_0056_Maize (corn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0112_Growing of rice_0027_Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0114_Growing of sugar cane_0156_Sugar cane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.C.1.b</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Burning crop residues (Emissions N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">0111_Growing of cereals (except rice), leguminous crops and oil seeds_0015_Wheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture - Burning crop residues (Emissions CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111_Growing of cereals (except rice), leguminous crops and oil seeds_0056_Maize (corn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0112_Growing of rice_0027_Rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0114_Growing of sugar cane_0156_Sugar cane</t>
+    <t xml:space="preserve">3.C.1.c</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Savanna fires</t>
@@ -380,7 +398,7 @@
     <t xml:space="preserve">Agriculture - Manure left on pasture (Emissions N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">3.C.7.</t>
+    <t xml:space="preserve">3.C.7</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Rice cultivation (Emissions CH4)</t>
@@ -440,7 +458,7 @@
     <t xml:space="preserve">9999_Undetermined_5.A_Indirect N2O emissions from the atmospheric deposition of nitrogen in NOx and NH3</t>
   </si>
   <si>
-    <t xml:space="preserve">9.A.</t>
+    <t xml:space="preserve">9.A</t>
   </si>
   <si>
     <t xml:space="preserve">Animal Stocks</t>
@@ -2704,7 +2722,7 @@
         <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
         <v>82</v>
@@ -2713,7 +2731,7 @@
         <v>15</v>
       </c>
       <c r="I67" t="n">
-        <v>62.02</v>
+        <v>68.211</v>
       </c>
     </row>
     <row r="68">
@@ -2730,19 +2748,19 @@
         <v>91</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
       </c>
       <c r="I68" t="n">
-        <v>17.49</v>
+        <v>70.066</v>
       </c>
     </row>
     <row r="69">
@@ -2759,19 +2777,19 @@
         <v>91</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
       </c>
       <c r="I69" t="n">
-        <v>68.211</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="70">
@@ -2791,16 +2809,16 @@
         <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
       </c>
       <c r="I70" t="n">
-        <v>519.3776</v>
+        <v>3.5245</v>
       </c>
     </row>
     <row r="71">
@@ -2817,19 +2835,19 @@
         <v>91</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
       </c>
       <c r="I71" t="n">
-        <v>70.6755</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="72">
@@ -2846,19 +2864,19 @@
         <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
       </c>
       <c r="I72" t="n">
-        <v>70.066</v>
+        <v>67.098</v>
       </c>
     </row>
     <row r="73">
@@ -2878,16 +2896,16 @@
         <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
       </c>
       <c r="I73" t="n">
-        <v>6.2944</v>
+        <v>153.3555</v>
       </c>
     </row>
     <row r="74">
@@ -2904,19 +2922,19 @@
         <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s">
         <v>15</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0795</v>
+        <v>750.4535</v>
       </c>
     </row>
     <row r="75">
@@ -2933,19 +2951,19 @@
         <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
         <v>15</v>
       </c>
       <c r="I75" t="n">
-        <v>0.477</v>
+        <v>30.952</v>
       </c>
     </row>
     <row r="76">
@@ -2965,16 +2983,16 @@
         <v>92</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s">
         <v>15</v>
       </c>
       <c r="I76" t="n">
-        <v>45.6008</v>
+        <v>68.476</v>
       </c>
     </row>
     <row r="77">
@@ -2991,19 +3009,19 @@
         <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6095</v>
+        <v>52.046</v>
       </c>
     </row>
     <row r="78">
@@ -3017,22 +3035,22 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s">
         <v>15</v>
       </c>
       <c r="I78" t="n">
-        <v>3.5245</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="79">
@@ -3046,22 +3064,22 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s">
         <v>15</v>
       </c>
       <c r="I79" t="n">
-        <v>21.0644</v>
+        <v>70.6755</v>
       </c>
     </row>
     <row r="80">
@@ -3075,22 +3093,22 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s">
         <v>15</v>
       </c>
       <c r="I80" t="n">
-        <v>0.212</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="81">
@@ -3104,22 +3122,22 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
       </c>
       <c r="I81" t="n">
-        <v>1.272</v>
+        <v>0.6095</v>
       </c>
     </row>
     <row r="82">
@@ -3133,22 +3151,22 @@
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s">
         <v>15</v>
       </c>
       <c r="I82" t="n">
-        <v>275.0972</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="83">
@@ -3162,10 +3180,10 @@
         <v>2021</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -3191,22 +3209,22 @@
         <v>2021</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s">
         <v>15</v>
       </c>
       <c r="I84" t="n">
-        <v>67.098</v>
+        <v>26.8975</v>
       </c>
     </row>
     <row r="85">
@@ -3220,22 +3238,22 @@
         <v>2021</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
       </c>
       <c r="I85" t="n">
-        <v>530.6224</v>
+        <v>1040.337</v>
       </c>
     </row>
     <row r="86">
@@ -3249,22 +3267,22 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
       </c>
       <c r="I86" t="n">
-        <v>26.8975</v>
+        <v>40.492</v>
       </c>
     </row>
     <row r="87">
@@ -3278,22 +3296,22 @@
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H87" t="s">
         <v>15</v>
       </c>
       <c r="I87" t="n">
-        <v>153.3555</v>
+        <v>24.0355</v>
       </c>
     </row>
     <row r="88">
@@ -3307,22 +3325,22 @@
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H88" t="s">
         <v>15</v>
       </c>
       <c r="I88" t="n">
-        <v>234.3488</v>
+        <v>18.2585</v>
       </c>
     </row>
     <row r="89">
@@ -3336,22 +3354,22 @@
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
         <v>15</v>
       </c>
       <c r="I89" t="n">
-        <v>1040.337</v>
+        <v>62.02</v>
       </c>
     </row>
     <row r="90">
@@ -3365,22 +3383,22 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
       </c>
       <c r="I90" t="n">
-        <v>750.4535</v>
+        <v>519.3776</v>
       </c>
     </row>
     <row r="91">
@@ -3394,22 +3412,22 @@
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E91" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
       </c>
       <c r="I91" t="n">
-        <v>26.04</v>
+        <v>6.2944</v>
       </c>
     </row>
     <row r="92">
@@ -3423,22 +3441,22 @@
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
       </c>
       <c r="I92" t="n">
-        <v>40.492</v>
+        <v>45.6008</v>
       </c>
     </row>
     <row r="93">
@@ -3452,22 +3470,22 @@
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
       </c>
       <c r="I93" t="n">
-        <v>30.952</v>
+        <v>21.0644</v>
       </c>
     </row>
     <row r="94">
@@ -3481,22 +3499,22 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s">
         <v>15</v>
       </c>
       <c r="I94" t="n">
-        <v>63.1288</v>
+        <v>275.0972</v>
       </c>
     </row>
     <row r="95">
@@ -3510,22 +3528,22 @@
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
       </c>
       <c r="I95" t="n">
-        <v>24.0355</v>
+        <v>530.6224</v>
       </c>
     </row>
     <row r="96">
@@ -3539,22 +3557,22 @@
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s">
         <v>15</v>
       </c>
       <c r="I96" t="n">
-        <v>68.476</v>
+        <v>234.3488</v>
       </c>
     </row>
     <row r="97">
@@ -3568,22 +3586,22 @@
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
       </c>
       <c r="I97" t="n">
-        <v>71.54</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="98">
@@ -3597,22 +3615,22 @@
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
         <v>93</v>
       </c>
-      <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>96</v>
-      </c>
       <c r="H98" t="s">
         <v>15</v>
       </c>
       <c r="I98" t="n">
-        <v>18.2585</v>
+        <v>63.1288</v>
       </c>
     </row>
     <row r="99">
@@ -3626,22 +3644,22 @@
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
         <v>94</v>
       </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>96</v>
-      </c>
       <c r="H99" t="s">
         <v>15</v>
       </c>
       <c r="I99" t="n">
-        <v>52.046</v>
+        <v>71.54</v>
       </c>
     </row>
     <row r="100">
@@ -3655,16 +3673,16 @@
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -3684,16 +3702,16 @@
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -3713,16 +3731,16 @@
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E102" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
@@ -3742,16 +3760,16 @@
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
@@ -3771,16 +3789,16 @@
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H104" t="s">
         <v>15</v>
@@ -3800,22 +3818,22 @@
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H105" t="s">
         <v>15</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>169.3916</v>
       </c>
     </row>
     <row r="106">
@@ -3829,22 +3847,22 @@
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>146.386</v>
       </c>
     </row>
     <row r="107">
@@ -3858,22 +3876,22 @@
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
       </c>
       <c r="I107" t="n">
-        <v>169.3916</v>
+        <v>2.4192</v>
       </c>
     </row>
     <row r="108">
@@ -3887,22 +3905,22 @@
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
       </c>
       <c r="I108" t="n">
-        <v>169.3916</v>
+        <v>469.1204</v>
       </c>
     </row>
     <row r="109">
@@ -3916,22 +3934,22 @@
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
       </c>
       <c r="I109" t="n">
-        <v>146.386</v>
+        <v>179.6284</v>
       </c>
     </row>
     <row r="110">
@@ -3945,22 +3963,22 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G110" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
       </c>
       <c r="I110" t="n">
-        <v>146.386</v>
+        <v>4.2784</v>
       </c>
     </row>
     <row r="111">
@@ -3974,16 +3992,16 @@
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
@@ -4003,22 +4021,22 @@
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
       </c>
       <c r="I112" t="n">
-        <v>2.4192</v>
+        <v>115.116</v>
       </c>
     </row>
     <row r="113">
@@ -4032,22 +4050,22 @@
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
       </c>
       <c r="I113" t="n">
-        <v>115.116</v>
+        <v>44.0695</v>
       </c>
     </row>
     <row r="114">
@@ -4061,22 +4079,22 @@
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E114" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
       </c>
       <c r="I114" t="n">
-        <v>469.1204</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="115">
@@ -4090,22 +4108,22 @@
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
       </c>
       <c r="I115" t="n">
-        <v>44.0695</v>
+        <v>1419.1156</v>
       </c>
     </row>
     <row r="116">
@@ -4119,22 +4137,22 @@
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E116" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
       </c>
       <c r="I116" t="n">
-        <v>179.6284</v>
+        <v>1226.2875</v>
       </c>
     </row>
     <row r="117">
@@ -4148,22 +4166,22 @@
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
       </c>
       <c r="I117" t="n">
-        <v>1.06</v>
+        <v>2407.9225</v>
       </c>
     </row>
     <row r="118">
@@ -4177,22 +4195,22 @@
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
       </c>
       <c r="I118" t="n">
-        <v>4.2784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4206,22 +4224,22 @@
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E119" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
       </c>
       <c r="I119" t="n">
-        <v>1419.1156</v>
+        <v>1158.527</v>
       </c>
     </row>
     <row r="120">
@@ -4235,22 +4253,22 @@
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E120" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
       </c>
       <c r="I120" t="n">
-        <v>1419.1156</v>
+        <v>7190.934</v>
       </c>
     </row>
     <row r="121">
@@ -4264,22 +4282,22 @@
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E121" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
       </c>
       <c r="G121" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
       </c>
       <c r="I121" t="n">
-        <v>1226.2875</v>
+        <v>24.0885</v>
       </c>
     </row>
     <row r="122">
@@ -4293,22 +4311,22 @@
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
       </c>
       <c r="I122" t="n">
-        <v>1226.2875</v>
+        <v>174.0255</v>
       </c>
     </row>
     <row r="123">
@@ -4322,22 +4340,22 @@
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
       </c>
       <c r="G123" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
       </c>
       <c r="I123" t="n">
-        <v>2407.9225</v>
+        <v>62.911</v>
       </c>
     </row>
     <row r="124">
@@ -4351,22 +4369,22 @@
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
       </c>
       <c r="G124" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3450.8565</v>
       </c>
     </row>
     <row r="125">
@@ -4380,22 +4398,22 @@
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
       </c>
       <c r="I125" t="n">
-        <v>1158.527</v>
+        <v>7591.561</v>
       </c>
     </row>
     <row r="126">
@@ -4409,22 +4427,22 @@
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E126" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
       </c>
       <c r="G126" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
       </c>
       <c r="I126" t="n">
-        <v>7190.934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4438,22 +4456,22 @@
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
       </c>
       <c r="G127" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
       </c>
       <c r="I127" t="n">
-        <v>24.0885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4467,22 +4485,22 @@
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
       </c>
       <c r="I128" t="n">
-        <v>174.0255</v>
+        <v>496.769</v>
       </c>
     </row>
     <row r="129">
@@ -4496,22 +4514,22 @@
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
       </c>
       <c r="I129" t="n">
-        <v>62.911</v>
+        <v>377.5985</v>
       </c>
     </row>
     <row r="130">
@@ -4525,22 +4543,22 @@
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G130" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
       </c>
       <c r="I130" t="n">
-        <v>3450.8565</v>
+        <v>13243.006</v>
       </c>
     </row>
     <row r="131">
@@ -4554,22 +4572,22 @@
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
       </c>
       <c r="I131" t="n">
-        <v>7591.561</v>
+        <v>6.9695</v>
       </c>
     </row>
     <row r="132">
@@ -4583,22 +4601,22 @@
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E132" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>618.192</v>
       </c>
     </row>
     <row r="133">
@@ -4612,22 +4630,22 @@
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E133" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F133" t="s">
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>117.236</v>
       </c>
     </row>
     <row r="134">
@@ -4641,22 +4659,22 @@
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E134" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
       </c>
       <c r="I134" t="n">
-        <v>496.769</v>
+        <v>550.776</v>
       </c>
     </row>
     <row r="135">
@@ -4670,22 +4688,22 @@
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E135" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
       </c>
       <c r="I135" t="n">
-        <v>377.5985</v>
+        <v>118.3755</v>
       </c>
     </row>
     <row r="136">
@@ -4699,22 +4717,22 @@
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E136" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
       </c>
       <c r="I136" t="n">
-        <v>13243.006</v>
+        <v>750.5065</v>
       </c>
     </row>
     <row r="137">
@@ -4728,22 +4746,22 @@
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E137" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
       </c>
       <c r="I137" t="n">
-        <v>6.9695</v>
+        <v>41.34</v>
       </c>
     </row>
     <row r="138">
@@ -4757,23 +4775,21 @@
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E138" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
       </c>
-      <c r="I138" t="n">
-        <v>618.192</v>
-      </c>
+      <c r="I138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -4786,22 +4802,22 @@
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E139" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
       </c>
       <c r="I139" t="n">
-        <v>117.236</v>
+        <v>15123.8318467421</v>
       </c>
     </row>
     <row r="140">
@@ -4815,22 +4831,22 @@
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H140" t="s">
         <v>15</v>
       </c>
       <c r="I140" t="n">
-        <v>550.776</v>
+        <v>151.4856</v>
       </c>
     </row>
     <row r="141">
@@ -4844,22 +4860,22 @@
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G141" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
       </c>
       <c r="I141" t="n">
-        <v>118.3755</v>
+        <v>12882.839091964</v>
       </c>
     </row>
     <row r="142">
@@ -4873,22 +4889,22 @@
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E142" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
       </c>
       <c r="G142" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
       </c>
       <c r="I142" t="n">
-        <v>750.5065</v>
+        <v>2075.98205104524</v>
       </c>
     </row>
     <row r="143">
@@ -4902,22 +4918,22 @@
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E143" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
       </c>
       <c r="I143" t="n">
-        <v>41.34</v>
+        <v>3777.52121135311</v>
       </c>
     </row>
     <row r="144">
@@ -4931,21 +4947,23 @@
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="G144" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H144" t="s">
-        <v>15</v>
-      </c>
-      <c r="I144"/>
+        <v>151</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2215008</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -4958,22 +4976,22 @@
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="G145" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I145" t="n">
-        <v>15123.8318467421</v>
+        <v>18549236</v>
       </c>
     </row>
     <row r="146">
@@ -4987,22 +5005,22 @@
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E146" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="G146" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I146" t="n">
-        <v>151.4856</v>
+        <v>102631</v>
       </c>
     </row>
     <row r="147">
@@ -5016,22 +5034,22 @@
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="G147" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I147" t="n">
-        <v>12882.839091964</v>
+        <v>1357162</v>
       </c>
     </row>
     <row r="148">
@@ -5045,22 +5063,22 @@
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E148" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="G148" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I148" t="n">
-        <v>2075.98205104524</v>
+        <v>293860</v>
       </c>
     </row>
     <row r="149">
@@ -5074,22 +5092,22 @@
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="G149" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="H149" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I149" t="n">
-        <v>3777.52121135311</v>
+        <v>49124553</v>
       </c>
     </row>
     <row r="150">
@@ -5103,22 +5121,22 @@
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E150" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F150" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G150" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H150" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I150" t="n">
-        <v>2215008</v>
+        <v>86140133</v>
       </c>
     </row>
     <row r="151">
@@ -5132,22 +5150,22 @@
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E151" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F151" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G151" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H151" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I151" t="n">
-        <v>18549236</v>
+        <v>8369607</v>
       </c>
     </row>
     <row r="152">
@@ -5161,22 +5179,22 @@
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E152" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F152" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G152" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H152" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I152" t="n">
-        <v>102631</v>
+        <v>929956</v>
       </c>
     </row>
     <row r="153">
@@ -5190,22 +5208,22 @@
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E153" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F153" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G153" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H153" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I153" t="n">
-        <v>1357162</v>
+        <v>112728610</v>
       </c>
     </row>
     <row r="154">
@@ -5219,195 +5237,21 @@
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E154" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F154" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G154" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H154" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I154" t="n">
-        <v>293860</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>9</v>
-      </c>
-      <c r="B155" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D155" t="s">
-        <v>142</v>
-      </c>
-      <c r="E155" t="s">
-        <v>143</v>
-      </c>
-      <c r="F155" t="s">
-        <v>144</v>
-      </c>
-      <c r="G155" t="s">
-        <v>87</v>
-      </c>
-      <c r="H155" t="s">
-        <v>145</v>
-      </c>
-      <c r="I155" t="n">
-        <v>49124553</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>9</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D156" t="s">
-        <v>142</v>
-      </c>
-      <c r="E156" t="s">
-        <v>143</v>
-      </c>
-      <c r="F156" t="s">
-        <v>144</v>
-      </c>
-      <c r="G156" t="s">
-        <v>88</v>
-      </c>
-      <c r="H156" t="s">
-        <v>145</v>
-      </c>
-      <c r="I156" t="n">
-        <v>86140133</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D157" t="s">
-        <v>142</v>
-      </c>
-      <c r="E157" t="s">
-        <v>143</v>
-      </c>
-      <c r="F157" t="s">
-        <v>144</v>
-      </c>
-      <c r="G157" t="s">
-        <v>89</v>
-      </c>
-      <c r="H157" t="s">
-        <v>145</v>
-      </c>
-      <c r="I157" t="n">
-        <v>8369607</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>9</v>
-      </c>
-      <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D158" t="s">
-        <v>142</v>
-      </c>
-      <c r="E158" t="s">
-        <v>143</v>
-      </c>
-      <c r="F158" t="s">
-        <v>144</v>
-      </c>
-      <c r="G158" t="s">
-        <v>90</v>
-      </c>
-      <c r="H158" t="s">
-        <v>145</v>
-      </c>
-      <c r="I158" t="n">
-        <v>929956</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>9</v>
-      </c>
-      <c r="B159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D159" t="s">
-        <v>142</v>
-      </c>
-      <c r="E159" t="s">
-        <v>143</v>
-      </c>
-      <c r="F159" t="s">
-        <v>144</v>
-      </c>
-      <c r="G159" t="s">
-        <v>95</v>
-      </c>
-      <c r="H159" t="s">
-        <v>145</v>
-      </c>
-      <c r="I159" t="n">
-        <v>112728610</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D160" t="s">
-        <v>142</v>
-      </c>
-      <c r="E160" t="s">
-        <v>143</v>
-      </c>
-      <c r="F160" t="s">
-        <v>144</v>
-      </c>
-      <c r="G160" t="s">
-        <v>96</v>
-      </c>
-      <c r="H160" t="s">
-        <v>145</v>
-      </c>
-      <c r="I160" t="n">
         <v>127752390</v>
       </c>
     </row>
